--- a/biology/Botanique/Euphorbe_des_bois/Euphorbe_des_bois.xlsx
+++ b/biology/Botanique/Euphorbe_des_bois/Euphorbe_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia amygdaloides
-L'Euphorbe des bois[1] ou Euphorbe faux-amandier (Euphorbia amygdaloides) est une plante de la famille des Euphorbiacées. Elle pousse dans les endroits ombragés, principalement en sous-bois.
+L'Euphorbe des bois ou Euphorbe faux-amandier (Euphorbia amygdaloides) est une plante de la famille des Euphorbiacées. Elle pousse dans les endroits ombragés, principalement en sous-bois.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Euphorbe des bois est une plante vivace de 30 à 90 cm, velue, à tige sous-ligneuse à la base et aux feuilles rapprochées en rosette au milieu de la tige. Les feuilles sont obovales et entières, velues au moins sur la face inférieure. Les ombelles ont 5 à 10 rayons bifurqués, et sont complétées par 3 à 12 rameaux fertiles. Les bractées florales sont soudées 2 à 2. Les glandes sont jaunes en croissant, à cornes convergentes, les capsules sont sillonnées.
-C'est une plante vénéneuse, parfois dangereuse pour le bétail. Ses fleurs sont visitées par les abeilles. Chez l'homme, cette plante est violemment vomitive et purgative[2].
+C'est une plante vénéneuse, parfois dangereuse pour le bétail. Ses fleurs sont visitées par les abeilles. Chez l'homme, cette plante est violemment vomitive et purgative.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
